--- a/data/iscsi.xlsx
+++ b/data/iscsi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="add_trunk_portal" sheetId="20" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="394">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,10 +611,6 @@
     <t>Gateway: 0.0.0.0</t>
   </si>
   <si>
-    <t>iscsi -t portal -i 2 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VlanTag: 520</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1021,18 +1017,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=drbd"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=initiator"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,tcpport=7,trunkid=0,porttype=mgmt,attribute=drbd"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,tcpport=7,trunkid=0,porttype=mgmt,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1045,10 +1033,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>portal of trunk type should be added by "iptype=4,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=drbd"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>portal of trunk type should be added by "iptype=4,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=initiator"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1061,10 +1045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>portal of trunk type should be added by "iptype=6,dhcp=enable,tcpport=7,trunkid=0,porttype=mgmt,attribute=drbd"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>portal of trunk type should be added by "iptype=6,dhcp=enable,tcpport=7,trunkid=0,porttype=mgmt,attribute=initiator"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1087,10 +1067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attribute: DRBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attribute: Initiator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1103,10 +1079,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=drbd"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=initiator"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1115,10 +1087,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>portal of physical type should be added by "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=drbd"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>portal of physical type should be added by "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=initiator"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1143,10 +1111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vlan of physical type should be added by "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=drbd"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vlan of physical type should be added by "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=initiator"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1302,10 +1266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(io|drbd|initiator)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=256.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=1,trunkid=0,porttype=io,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1346,101 +1306,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>iscsi -a mod -r 2 -t port -p 1 -s "jumboframe=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -r 2 -t port -p 1 -s "jumboframe=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -r 2 -t port -p 2 -s "jumboframe=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -r 2 -t port -p 2 -s "jumboframe=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 1 on ctrl 2 should be modified by "jumboframe=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 1 on ctrl 2 should be modified by "jumboframe=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 2 on ctrl 2 should be modified by "jumboframe=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 2 on ctrl 2 should be modified by "jumboframe=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t portal -i 0 -s "tcpport=0,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal 0 should be modified by "tcpport=0,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryIp: 10.84.2.132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation failed as the portal id specified is invalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(target|port|portal|session|device)</t>
+  </si>
+  <si>
+    <t>iscsi -t device -i 65536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-i: invalid setting 65536 (0,65535)</t>
+  </si>
+  <si>
+    <t>iscsi -t portal -i 65536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t session -i 65536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -r 2 -t port -p 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-p: invalid setting 5 (1,4)</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=4,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,tcpport=7,trunkid=0,porttype=mgmt,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=6,dhcp=enable,tcpport=7,trunkid=0,porttype=mgmt,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>portal of physical type should be added by "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>vlan of physical type should be added by "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>iscsi -a mod -t portal -i 4 -s "vlantag=520,tcpport=65533,primaryip=10.84.2.250,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>portal 2 should be modified by "vlantag=520,tcpport=65533,primaryip=10.84.2.250,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>(io|advanced|initiator)</t>
+  </si>
+  <si>
+    <t>Attribute: Advanced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute: Advanced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t portal -i 4 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t portal -i 4 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=3,iptype=4,dhcp=enable,tcpport=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=0"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=3,iptype=4,dhcp=enable,tcpport=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=drbd"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -r 2 -t port -p 1 -s "jumboframe=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -r 2 -t port -p 1 -s "jumboframe=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -r 2 -t port -p 2 -s "jumboframe=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -r 2 -t port -p 2 -s "jumboframe=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 1 on ctrl 2 should be modified by "jumboframe=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 1 on ctrl 2 should be modified by "jumboframe=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 2 on ctrl 2 should be modified by "jumboframe=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 2 on ctrl 2 should be modified by "jumboframe=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t portal -i 4 -s "vlantag=520,tcpport=65533,primaryip=10.84.2.250,attribute=drbd"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t portal -i 0 -s "tcpport=0,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal 0 should be modified by "tcpport=0,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal 2 should be modified by "vlantag=520,tcpport=65533,primaryip=10.84.2.250,attribute=drbd"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryIp: 10.84.2.132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation failed as the portal id specified is invalid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(target|port|portal|session|device)</t>
-  </si>
-  <si>
-    <t>iscsi -t device -i 65536</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-i: invalid setting 65536 (0,65535)</t>
-  </si>
-  <si>
-    <t>iscsi -t portal -i 65536</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t session -i 65536</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -r 2 -t port -p 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-p: invalid setting 5 (1,4)</t>
+    <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1792,7 +1793,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1825,10 +1826,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1849,18 +1850,18 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="J2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>376</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1881,18 +1882,18 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="J3" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1913,18 +1914,18 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="J4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1945,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -1956,10 +1957,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1980,18 +1981,18 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>377</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -2012,18 +2013,18 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J7" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -2044,18 +2045,18 @@
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -2087,10 +2088,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -2131,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2164,10 +2165,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2185,18 +2186,18 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2214,18 +2215,18 @@
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I3" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -2243,18 +2244,18 @@
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -2272,7 +2273,7 @@
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -2283,10 +2284,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -2315,10 +2316,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -2336,18 +2337,18 @@
         <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -2365,18 +2366,18 @@
         <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I8" t="s">
-        <v>299</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -2394,18 +2395,18 @@
         <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -2425,10 +2426,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -2448,13 +2449,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B12" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
@@ -2480,13 +2481,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
@@ -2512,13 +2513,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B14" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
@@ -2544,13 +2545,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C15" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -2762,13 +2763,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
@@ -2832,7 +2833,7 @@
         <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -2864,7 +2865,7 @@
         <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -3295,10 +3296,10 @@
         <v>138</v>
       </c>
       <c r="R8" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="S8" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
@@ -3354,10 +3355,10 @@
         <v>138</v>
       </c>
       <c r="R9" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="S9" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
@@ -3399,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3535,10 +3536,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -3549,10 +3550,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -3563,10 +3564,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
         <v>166</v>
@@ -3577,10 +3578,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
         <v>167</v>
@@ -3591,10 +3592,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C11" t="s">
         <v>168</v>
@@ -3615,53 +3616,53 @@
         <v>173</v>
       </c>
       <c r="I11" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D12" t="s">
         <v>174</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>175</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>176</v>
       </c>
-      <c r="F12" t="s">
-        <v>177</v>
-      </c>
       <c r="G12" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C13" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" t="s">
         <v>174</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>175</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>176</v>
       </c>
-      <c r="F13" t="s">
-        <v>177</v>
-      </c>
       <c r="G13" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3705,10 +3706,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -3719,13 +3720,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
         <v>77</v>
@@ -3733,13 +3734,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
         <v>77</v>
@@ -3781,7 +3782,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -3792,51 +3793,51 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -3847,29 +3848,29 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -3880,216 +3881,216 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B22" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C22" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B23" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -4101,145 +4102,145 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" t="s">
         <v>219</v>
       </c>
-      <c r="B38" t="s">
-        <v>220</v>
-      </c>
       <c r="C38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C41" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C42" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -4250,24 +4251,24 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C45" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4305,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4315,7 +4316,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4326,7 +4327,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4337,7 +4338,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -4348,7 +4349,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -4359,7 +4360,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -4370,7 +4371,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -4381,7 +4382,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -4400,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4423,7 +4424,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4434,7 +4435,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -4445,7 +4446,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4456,7 +4457,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -4467,7 +4468,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -4478,7 +4479,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -4489,7 +4490,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -4500,7 +4501,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -4511,7 +4512,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -4522,7 +4523,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -4533,10 +4534,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -4544,7 +4545,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -4555,7 +4556,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -4566,7 +4567,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -4577,7 +4578,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -4588,7 +4589,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -4599,7 +4600,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -4610,7 +4611,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -4621,7 +4622,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -4632,7 +4633,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>

--- a/data/iscsi.xlsx
+++ b/data/iscsi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_trunk_portal" sheetId="20" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="384">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,9 +69,6 @@
     <t>iscsi -t portal -v -i 1</t>
   </si>
   <si>
-    <t>iscsi -t portal -v -i 2</t>
-  </si>
-  <si>
     <t>iscsi -t portal -v -i 3</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Dhcp: Disabled</t>
   </si>
   <si>
-    <t>TcpPort: 1</t>
-  </si>
-  <si>
     <t>PrimaryIpMask: 255.255.255.0</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>IpType: 6</t>
   </si>
   <si>
-    <t>TcpPort: 7</t>
-  </si>
-  <si>
     <t>TcpPort: 65534</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +149,6 @@
     <t>iscsi -t portal -v -i 9</t>
   </si>
   <si>
-    <t>TcpPort: 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InterfaceType: Physical</t>
   </si>
   <si>
@@ -183,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TcpPort: 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,10 +584,6 @@
     <t>JumboFrame: Disabled</t>
   </si>
   <si>
-    <t>TcpPort: 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PrimaryIp: 10.84.2.240</t>
   </si>
   <si>
@@ -819,12 +798,6 @@
     <t>dhcp: invalid setting 0 (enable|disable)</t>
   </si>
   <si>
-    <t>tcpport: invalid setting -1 (0,65535)</t>
-  </si>
-  <si>
-    <t>tcpport: invalid setting 65536 (0,65535)</t>
-  </si>
-  <si>
     <t>trunkid: invalid setting -1 (0,7)</t>
   </si>
   <si>
@@ -997,18 +970,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=10.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=1,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:0:0:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65534,trunkid=0,porttype=io,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1017,38 +978,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=initiator"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,tcpport=7,trunkid=0,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,tcpport=7,trunkid=0,porttype=mgmt,attribute=initiator"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=4,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=4,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=initiator"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=4,dhcp=disable,primaryip=10.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=1,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=6,dhcp=enable,tcpport=7,trunkid=0,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=6,dhcp=enable,tcpport=7,trunkid=0,porttype=mgmt,attribute=initiator"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>portal of trunk type should be added by "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:0:0:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65534,trunkid=0,porttype=io,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1067,54 +996,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Attribute: Initiator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=initiator"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=initiator"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of physical type should be added by "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of physical type should be added by "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=initiator"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -s "iptype=4,dhcp=disable,primaryip=10.84.2.241,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65535,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of physical type should be added by "iptype=4,dhcp=disable,primaryip=10.84.2.241,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65535"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vlan of physical type should be added by "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vlan of physical type should be added by "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vlan of physical type should be added by "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=initiator"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=6,dhcp=enable,tcpport=65534,porttype=mgmt,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1123,14 +1004,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=4093,iptype=6,dhcp=enable,tcpport=1,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vlan of physical type should be added by "vlantag=4093,iptype=6,dhcp=enable,tcpport=1,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -r 2 -p 2 -s "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:0:0:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65535,porttype=io,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1186,18 +1059,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a mod -t portal -i 4 -s "vlantag=520,tcpport=65533,primaryip=10.84.2.250,attribute=initiator"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal 2 should be modified by "vlantag=520,tcpport=65533,primaryip=10.84.2.250,attribute=initiator"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attribute: Ininiator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a del -t portal -i 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1338,14 +1199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a mod -t portal -i 0 -s "tcpport=0,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal 0 should be modified by "tcpport=0,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PrimaryIp: 10.84.2.132</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1379,39 +1232,12 @@
     <t>-p: invalid setting 5 (1,4)</t>
   </si>
   <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=advanced"</t>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=4,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=advanced"</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,tcpport=7,trunkid=0,porttype=mgmt,attribute=advanced"</t>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=6,dhcp=enable,tcpport=7,trunkid=0,porttype=mgmt,attribute=advanced"</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=advanced"</t>
-  </si>
-  <si>
-    <t>portal of physical type should be added by "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=advanced"</t>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=advanced"</t>
   </si>
   <si>
     <t>vlan of physical type should be added by "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=advanced"</t>
   </si>
   <si>
-    <t>iscsi -a mod -t portal -i 4 -s "vlantag=520,tcpport=65533,primaryip=10.84.2.250,attribute=advanced"</t>
-  </si>
-  <si>
-    <t>portal 2 should be modified by "vlantag=520,tcpport=65533,primaryip=10.84.2.250,attribute=advanced"</t>
-  </si>
-  <si>
-    <t>(io|advanced|initiator)</t>
-  </si>
-  <si>
     <t>Attribute: Advanced</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1424,10 +1250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -t portal -i 4 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=0"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1436,12 +1258,153 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=10.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,tcpport=65535,trunkid=0,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=4,dhcp=disable,primaryip=10.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=6,dhcp=enable,tcpport=65535,trunkid=0,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=6,dhcp=enable,trunkid=0,porttype=mgmt,attribute=advanced"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,trunkid=0,porttype=mgmt,attribute=advanced"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 1025</t>
+  </si>
+  <si>
+    <t>TcpPort: 65534</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 65535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 3260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 2 -s "iptype=4,dhcp=disable,primaryip=10.84.2.241,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=4093,iptype=6,dhcp=enable,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlan of physical type should be added by "vlantag=2,iptype=4,dhcp=enable,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlan of physical type should be added by "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65535,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of physical type should be added by "iptype=4,dhcp=disable,primaryip=10.84.2.241,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlan of physical type should be added by "vlantag=4093,iptype=6,dhcp=enable,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal 0 should be modified by "tcpport=3260,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 3260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t portal -i 0 -s "tcpport=3260,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t portal -i 4 -s "vlantag=520,dhcp=disable,tcpport=65533,primaryip=10.84.2.250,primaryipmask=255.255.255.0,attribute=advanced"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal 2 should be modified by "vlantag=520,dhcp=disable,tcpport=65533,primaryip=10.84.2.250,primaryipmask=255.255.255.0,attribute=advanced"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(io|advanced)</t>
+  </si>
+  <si>
+    <t>tcpport: invalid setting 65536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(io|advanced)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tcpport: invalid setting -1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=0"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Missing parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Operation failed as the trunk id specified is invalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting trunk id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=1026,trunkid=0,porttype=io,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=4,dhcp=enable,tcpport=1026,trunkid=0,porttype=io,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>TcpPort: 1026</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=1025,trunkid=0,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=4,dhcp=enable,tcpport=1025,trunkid=0,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=1026,porttype=io,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>portal of physical type should be added by "iptype=4,dhcp=enable,tcpport=1026,porttype=io,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=1025,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>portal of physical type should be added by "iptype=4,dhcp=enable,tcpport=1025,porttype=io,attribute=io"</t>
   </si>
 </sst>
 </file>
@@ -1790,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1826,34 +1789,34 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>351</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="J2" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -1867,170 +1830,173 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>377</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="J3" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>352</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="J4" t="s">
-        <v>294</v>
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>353</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>366</v>
+        <v>272</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
       <c r="I6" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="J6" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>386</v>
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -2039,86 +2005,19 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>291</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
         <v>29</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K8" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2130,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2165,414 +2064,356 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>351</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="I2" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>377</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="I3" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>352</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="I4" t="s">
-        <v>294</v>
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>353</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>354</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>272</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="I7" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>291</v>
-      </c>
-      <c r="I8" t="s">
-        <v>387</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>354</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>291</v>
-      </c>
-      <c r="I9" t="s">
-        <v>294</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B12" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2624,276 +2465,276 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
         <v>65</v>
       </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
         <v>64</v>
       </c>
-      <c r="E7" t="s">
+      <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="F7" t="s">
+      <c r="K7" t="s">
         <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
         <v>77</v>
       </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>78</v>
       </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>83</v>
-      </c>
       <c r="J9" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
         <v>76</v>
       </c>
-      <c r="C10" t="s">
+      <c r="H10" t="s">
         <v>77</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
         <v>78</v>
       </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>83</v>
-      </c>
       <c r="J10" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2990,403 +2831,403 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
         <v>107</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>108</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>109</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>110</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>111</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>112</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>113</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>114</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>115</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>116</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>117</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>118</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>119</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>120</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>121</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>122</v>
-      </c>
-      <c r="S2" t="s">
-        <v>123</v>
-      </c>
-      <c r="T2" t="s">
-        <v>124</v>
-      </c>
-      <c r="U2" t="s">
-        <v>125</v>
-      </c>
-      <c r="V2" t="s">
-        <v>126</v>
-      </c>
-      <c r="W2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" t="s">
         <v>107</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>108</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>110</v>
       </c>
-      <c r="G3" t="s">
+      <c r="L3" t="s">
         <v>111</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>112</v>
       </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
         <v>113</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>114</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3" t="s">
         <v>115</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" t="s">
         <v>116</v>
       </c>
-      <c r="M3" t="s">
+      <c r="R3" t="s">
         <v>117</v>
       </c>
-      <c r="N3" t="s">
+      <c r="S3" t="s">
         <v>118</v>
       </c>
-      <c r="O3" t="s">
+      <c r="T3" t="s">
         <v>119</v>
       </c>
-      <c r="P3" t="s">
+      <c r="U3" t="s">
         <v>120</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="V3" t="s">
         <v>121</v>
       </c>
-      <c r="R3" t="s">
+      <c r="W3" t="s">
         <v>122</v>
-      </c>
-      <c r="S3" t="s">
-        <v>123</v>
-      </c>
-      <c r="T3" t="s">
-        <v>124</v>
-      </c>
-      <c r="U3" t="s">
-        <v>125</v>
-      </c>
-      <c r="V3" t="s">
-        <v>126</v>
-      </c>
-      <c r="W3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
         <v>65</v>
       </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>103</v>
       </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
       <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" t="s">
         <v>128</v>
       </c>
-      <c r="E8" t="s">
+      <c r="M8" t="s">
         <v>129</v>
       </c>
-      <c r="F8" t="s">
+      <c r="N8" t="s">
         <v>130</v>
       </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="O8" t="s">
         <v>131</v>
       </c>
-      <c r="K8" t="s">
+      <c r="P8" t="s">
         <v>132</v>
       </c>
-      <c r="L8" t="s">
+      <c r="Q8" t="s">
         <v>133</v>
       </c>
-      <c r="M8" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" t="s">
-        <v>135</v>
-      </c>
-      <c r="O8" t="s">
-        <v>136</v>
-      </c>
-      <c r="P8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>138</v>
-      </c>
       <c r="R8" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="S8" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" t="s">
         <v>128</v>
       </c>
-      <c r="E9" t="s">
+      <c r="M9" t="s">
         <v>129</v>
       </c>
-      <c r="F9" t="s">
+      <c r="N9" t="s">
         <v>130</v>
       </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="O9" t="s">
         <v>131</v>
       </c>
-      <c r="K9" t="s">
+      <c r="P9" t="s">
         <v>132</v>
       </c>
-      <c r="L9" t="s">
+      <c r="Q9" t="s">
         <v>133</v>
       </c>
-      <c r="M9" t="s">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s">
-        <v>135</v>
-      </c>
-      <c r="O9" t="s">
-        <v>136</v>
-      </c>
-      <c r="P9" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>138</v>
-      </c>
       <c r="R9" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="S9" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3398,16 +3239,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="120" customWidth="1"/>
-    <col min="2" max="2" width="134.75" customWidth="1"/>
+    <col min="1" max="2" width="155.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.25" customWidth="1"/>
     <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
@@ -3433,236 +3273,213 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" t="s">
         <v>159</v>
-      </c>
-      <c r="B2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
         <v>139</v>
       </c>
-      <c r="D6" t="s">
-        <v>144</v>
-      </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s">
         <v>364</v>
       </c>
-      <c r="B11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" t="s">
-        <v>171</v>
-      </c>
       <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I11" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C12" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B13" t="s">
-        <v>326</v>
-      </c>
-      <c r="C13" t="s">
-        <v>389</v>
-      </c>
-      <c r="D13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3706,44 +3523,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3755,10 +3572,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3782,7 +3599,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -3793,51 +3610,51 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -3848,29 +3665,29 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -3881,394 +3698,405 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>374</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>226</v>
+        <v>197</v>
+      </c>
+      <c r="C17" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>228</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>229</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="B22" t="s">
-        <v>343</v>
-      </c>
-      <c r="C22" t="s">
-        <v>345</v>
+        <v>200</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="C23" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>231</v>
+        <v>308</v>
+      </c>
+      <c r="C24" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" t="s">
-        <v>234</v>
+        <v>203</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>228</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C36" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>236</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>369</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s">
-        <v>343</v>
+        <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>345</v>
+        <v>227</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="C42" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>195</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>308</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B44" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>245</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
-        <v>367</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4282,7 +4110,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4305,7 +4133,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4316,7 +4144,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4327,7 +4155,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4338,7 +4166,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -4349,7 +4177,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -4360,7 +4188,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -4371,7 +4199,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -4382,7 +4210,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -4402,7 +4230,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4424,7 +4252,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4435,7 +4263,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -4446,7 +4274,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4457,7 +4285,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -4468,7 +4296,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -4479,7 +4307,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -4490,7 +4318,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -4501,7 +4329,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -4512,7 +4340,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -4523,7 +4351,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -4533,11 +4361,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>392</v>
-      </c>
       <c r="B12" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -4545,7 +4370,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -4556,7 +4381,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -4567,7 +4392,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -4578,7 +4403,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -4589,7 +4414,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -4600,7 +4425,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -4611,7 +4436,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -4622,7 +4447,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -4633,7 +4458,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>

--- a/data/iscsi.xlsx
+++ b/data/iscsi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="884" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="add_trunk_portal" sheetId="20" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="396">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,1259 +152,1304 @@
     <t>InterfaceType: Physical</t>
   </si>
   <si>
+    <t>InterfaceType: VLAN</t>
+  </si>
+  <si>
+    <t>PrimaryIp: 10.84.2.253</t>
+  </si>
+  <si>
+    <t>iscsi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gives summary information about iSCSI status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssignedPortals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t target</t>
+  </si>
+  <si>
+    <t>iscsi -t port</t>
+  </si>
+  <si>
+    <t>PortId:</t>
+  </si>
+  <si>
+    <t>iscsi -t session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specifies iSCSI port as the device type to display</t>
+  </si>
+  <si>
+    <t>all iSCSI port as the device type to display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display session information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displays the logged in devices information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display port or session statistics information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -r 2 -p 1 -t stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CtrlId:</t>
+  </si>
+  <si>
+    <t>JumboFrame:</t>
+  </si>
+  <si>
+    <t>PortStatus:</t>
+  </si>
+  <si>
+    <t>LinkStats:</t>
+  </si>
+  <si>
+    <t>MacAddress:</t>
+  </si>
+  <si>
+    <t>MaxSupportSpeed:</t>
+  </si>
+  <si>
+    <t>CurrentSpeed:</t>
+  </si>
+  <si>
+    <t>RelativePortals:</t>
+  </si>
+  <si>
+    <t>PortId: 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -r 2 -t port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t portal -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display all portal information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display portal 0 information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortalID</t>
+  </si>
+  <si>
+    <t>CtrlID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLANTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrunkID</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>MacTransFrame:</t>
+  </si>
+  <si>
+    <t>MacTransBytes:</t>
+  </si>
+  <si>
+    <t>MacRcvFrame:</t>
+  </si>
+  <si>
+    <t>MacRcvBytes:</t>
+  </si>
+  <si>
+    <t>iscsi -r 2 -t port -p 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -v</t>
+  </si>
+  <si>
+    <t>iscsi -t target -v</t>
+  </si>
+  <si>
+    <t>iscsi -t port -v</t>
+  </si>
+  <si>
+    <t>iscsi -r 2 -t port -v</t>
+  </si>
+  <si>
+    <t>iscsi -r 2 -t port -p 1 -v</t>
+  </si>
+  <si>
+    <t>iscsi -t session -v</t>
+  </si>
+  <si>
+    <t>iscsi -t portal -v</t>
+  </si>
+  <si>
+    <t>iscsi -t portal -i 0 -v</t>
+  </si>
+  <si>
+    <t>iscsi -t device -v</t>
+  </si>
+  <si>
+    <t>iscsi -r 2 -p 1 -t stats -v</t>
+  </si>
+  <si>
+    <t>Gives summary information about iSCSI status by verbose mode</t>
+  </si>
+  <si>
+    <t>all iSCSI port as the device type to display by verbose mode</t>
+  </si>
+  <si>
+    <t>Specifies iSCSI port as the device type to display by verbose mode</t>
+  </si>
+  <si>
+    <t>Display session information by verbose mode</t>
+  </si>
+  <si>
+    <t>Display all portal information by verbose mode</t>
+  </si>
+  <si>
+    <t>Display portal 0 information by verbose mode</t>
+  </si>
+  <si>
+    <t>Displays the logged in devices information by verbose mode</t>
+  </si>
+  <si>
+    <t>Display port or session statistics information by verbose mode</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Id:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias:</t>
+  </si>
+  <si>
+    <t>ImmediateData:</t>
+  </si>
+  <si>
+    <t>InitialR2t:</t>
+  </si>
+  <si>
+    <t>HeaderDigest:</t>
+  </si>
+  <si>
+    <t>DataDigest:</t>
+  </si>
+  <si>
+    <t>UniChapAuth:</t>
+  </si>
+  <si>
+    <t>BiChapAuth:</t>
+  </si>
+  <si>
+    <t>DataPduInOrder:</t>
+  </si>
+  <si>
+    <t>DataSeqInOrder:</t>
+  </si>
+  <si>
+    <t>MaxOutstandingR2t:</t>
+  </si>
+  <si>
+    <t>MaxConnects:</t>
+  </si>
+  <si>
+    <t>FirstBurstLength:</t>
+  </si>
+  <si>
+    <t>MaxBurstLength:</t>
+  </si>
+  <si>
+    <t>DefTimeToWait:</t>
+  </si>
+  <si>
+    <t>DefTimeToRetain:</t>
+  </si>
+  <si>
+    <t>ErrorRecoveryLevel:</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>KeepAlive:</t>
+  </si>
+  <si>
+    <t>AssnPortalIds:</t>
+  </si>
+  <si>
+    <t>TcpPort:</t>
+  </si>
+  <si>
+    <t>Dhcp:</t>
+  </si>
+  <si>
+    <t>InterfaceType:</t>
+  </si>
+  <si>
+    <t>InterfaceName:</t>
+  </si>
+  <si>
+    <t>IpType:</t>
+  </si>
+  <si>
+    <t>PrimaryIp:</t>
+  </si>
+  <si>
+    <t>PrimaryIpMask:</t>
+  </si>
+  <si>
+    <t>Gateway:</t>
+  </si>
+  <si>
+    <t>AssnTargets:</t>
+  </si>
+  <si>
+    <t>SecondRoute:</t>
+  </si>
+  <si>
+    <t>RouteInterface:</t>
+  </si>
+  <si>
+    <t>iscsi -t target -v -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UniChapAuth: Enabled</t>
+  </si>
+  <si>
+    <t>BiChapAuth: Disabled</t>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -i 0 -s "unichapauth=disable,bichapauth=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiChapAuth: Enabled</t>
+  </si>
+  <si>
+    <t>UniChapAuth: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BiChapAuth: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -i 0 -s "alias=test-test-test-test-test-test31,unichapauth=enable,bichapauth=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target should be modified by "alias=test-test-test-test-test-test31,unichapauth=enable,bichapauth=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target should be modified by "unichapauth=disable,bichapauth=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target should be modified by "alias=test-test-test-test-test-tes30,unichapauth=enable,bichapauth=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -i 0 -s "alias=test-test-test-test-test-tes30,unichapauth=enable,bichapauth=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias: 12</t>
+  </si>
+  <si>
+    <t>HeaderDigest: Enabled</t>
+  </si>
+  <si>
+    <t>DataDigest: Disabled</t>
+  </si>
+  <si>
+    <t>Alias: Tt3</t>
+  </si>
+  <si>
+    <t>HeaderDigest: Disabled</t>
+  </si>
+  <si>
+    <t>DataDigest: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias: test-test-test-test-test-tes30</t>
+  </si>
+  <si>
+    <t>Alias: test-test-test-test-test-test31</t>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -i 0 -s "alias=12,headerdigest=enable,datadigest=disable,keepalive=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -i 0 -s "alias=Tt3,headerdigest=disable,datadigest=enable,keepalive=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target should be modified by "alias=Tt3,headerdigest=disable,datadigest=enable,keepalive=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target should be modified by "alias=12,headerdigest=enable,datadigest=disable,keepalive=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeepAlive: Enabled</t>
+  </si>
+  <si>
+    <t>KeepAlive: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -r 2 -t port -p 1 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -r 2 -t port -p 2 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -r 2 -t port -p 2 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumboFrame: Enabled</t>
+  </si>
+  <si>
+    <t>JumboFrame: Disabled</t>
+  </si>
+  <si>
+    <t>PrimaryIp: 10.84.2.240</t>
+  </si>
+  <si>
+    <t>Gateway: 0.0.0.0</t>
+  </si>
+  <si>
+    <t>VlanTag: 520</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 65533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryIp: 10.84.2.250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi portal 1 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -r 3 -t port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t session -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t portal -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -r 2 -p 1 -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -i 0 -s "alias=test-test-test-test-test-test-32"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -i 0 -s "headerdigest=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -i 0 -s "datadigest=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -i 0 -s "keepalive=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -i 0 -s "unichapauth=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -i 0 -s "bichapauth=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -r 2 -t port -p 1 -s "port=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a del -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a del -t portal -i 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a del -t portal -i 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting ctrl id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting port id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting session id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting portal id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting device id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting ip type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting dhcp value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting tcp port value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting trunk value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting primary ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting primary ip mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting gateway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting vlan value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting alias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting header digest value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting data digest value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting keepalive value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting unichapauth value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting bichapauth value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting port value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -r 2 -t port -p 1 -s "jumboframe=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting jumboframe value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting vlantag value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting portal id when executes deleting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting portal id when executes deleting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-r: invalid setting 3 (1,2)</t>
+  </si>
+  <si>
+    <t>(phy|trunk|vlan)</t>
+  </si>
+  <si>
+    <t>iptype: invalid setting 7 (4|6)</t>
+  </si>
+  <si>
+    <t>dhcp: invalid setting 0 (enable|disable)</t>
+  </si>
+  <si>
+    <t>trunkid: invalid setting -1 (0,7)</t>
+  </si>
+  <si>
+    <t>trunkid: invalid setting 8 (0,7)</t>
+  </si>
+  <si>
+    <t>invalid primary_ip: 256.84.2.132</t>
+  </si>
+  <si>
+    <t>invalid primary_ip_mask: 256.255.255.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid gateway: 10.256.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid primary_ip: G:1:2:3:0:0:0:0</t>
+  </si>
+  <si>
+    <t>vlantag: invalid setting 0 (1,4094)</t>
+  </si>
+  <si>
+    <t>vlantag: invalid setting 4095 (1,4094)</t>
+  </si>
+  <si>
+    <t>alias: invalid setting test-test-test-test-test-test-32</t>
+  </si>
+  <si>
+    <t>headerdigest: invalid setting 0 (enable|disable)</t>
+  </si>
+  <si>
+    <t>datadigest: invalid setting 0 (enable|disable)</t>
+  </si>
+  <si>
+    <t>keepalive: invalid setting 1 (enable|disable)</t>
+  </si>
+  <si>
+    <t>unichapauth: invalid setting 0 (enable|disable)</t>
+  </si>
+  <si>
+    <t>bichapauth: invalid setting 1 (enable|disable)</t>
+  </si>
+  <si>
+    <t>port: invalid setting 1 (enable|disable)</t>
+  </si>
+  <si>
+    <t>jumboframe: invalid setting 0 (enable|disable)</t>
+  </si>
+  <si>
+    <t>Operation failed as the portal id specified is invalid</t>
+  </si>
+  <si>
+    <t>iscsi -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -s "test=4,dhcp=enable,tcpport=65533,trunkid=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -i 0 -s "test=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t session -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t portal -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t device -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t target -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t port -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">iscsi -a add -t </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">iscsi -a add -t portal -m trunk -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">iscsi -a add -t portal -m </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t target -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">iscsi -a mod -t target -i 0 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a del -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a del -t portal -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid parameter</t>
+  </si>
+  <si>
+    <t>iscsi -r 2 -t port -p 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortId: 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:0:0:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65534,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=disable,primaryip=A:B:0:0:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:0:0:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65534,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=6,dhcp=disable,primaryip=A:B:0:0:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortType: Mgmt</t>
+  </si>
+  <si>
+    <t>PortType: IO</t>
+  </si>
+  <si>
+    <t>Attribute: IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=6,dhcp=enable,tcpport=65534,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of physical type should be added by "iptype=6,dhcp=enable,tcpport=65534,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 2 -s "iptype=6,dhcp=disable,primaryip=A:B:0:0:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of physical type should be added by "iptype=6,dhcp=disable,primaryip=A:B:0:0:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=4094,iptype=6,dhcp=disable,primaryip=0:1:2:3:0:0:0:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65535,porttype=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlan of physical type should be added by "vlantag=4094,iptype=6,dhcp=disable,primaryip=0:1:2:3:0:0:0:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65535,porttype=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t portal -v -i 10</t>
+  </si>
+  <si>
+    <t>iscsi -t portal -v -i 11</t>
+  </si>
+  <si>
+    <t>PortType</t>
+  </si>
+  <si>
+    <t>PortType:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a del -t portal -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a del -t portal -i 1</t>
+  </si>
+  <si>
+    <t>iscsi -a del -t portal -i 2</t>
+  </si>
+  <si>
+    <t>iscsi portal 0 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi portal 2 should be deleted</t>
+  </si>
+  <si>
+    <t>iscsi -t portal -i 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t portal -i 2</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=7,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=0,tcpport=0,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=-1,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=65536,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=-1,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=8,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -s "iptype=4,dhcp=enable,tcpport=0,porttype=test,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m vlan -s "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting porttype value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting attribute value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(io|mgmt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=256.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=1,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=251.84.2.132,primaryipmask=256.255.255.0,gateway=10.84.2.1,tcpport=1,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=251.84.2.132,primaryipmask=255.255.255.0,gateway=10.256.2.1,tcpport=1,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=disable,primaryip=G:1:2:3:0:0:0:0,primaryipmask=::,gateway=::,tcpport=0,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=0,iptype=4,dhcp=enable,tcpport=65535,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=4095,iptype=4,dhcp=enable,tcpport=65535,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t portal -i 4 -s "tcpport=65536,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t portal -i 5 -s "vlantag=0,tcpport=65533,primaryip=10.84.2.250"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t portal -i 6 -s "porttype=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t portal -i 7 -s "attribute=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -r 2 -t port -p 1 -s "jumboframe=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -r 2 -t port -p 1 -s "jumboframe=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -r 2 -t port -p 2 -s "jumboframe=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -r 2 -t port -p 2 -s "jumboframe=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 1 on ctrl 2 should be modified by "jumboframe=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 1 on ctrl 2 should be modified by "jumboframe=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 2 on ctrl 2 should be modified by "jumboframe=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 2 on ctrl 2 should be modified by "jumboframe=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryIp: 10.84.2.132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation failed as the portal id specified is invalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(target|port|portal|session|device)</t>
+  </si>
+  <si>
+    <t>iscsi -t device -i 65536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-i: invalid setting 65536 (0,65535)</t>
+  </si>
+  <si>
+    <t>iscsi -t portal -i 65536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t session -i 65536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -r 2 -t port -p 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-p: invalid setting 5 (1,4)</t>
+  </si>
+  <si>
+    <t>Attribute: Advanced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t portal -i 4 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=10.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,tcpport=65535,trunkid=0,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=4,dhcp=disable,primaryip=10.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=6,dhcp=enable,tcpport=65535,trunkid=0,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=6,dhcp=enable,trunkid=0,porttype=mgmt,attribute=advanced"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,trunkid=0,porttype=mgmt,attribute=advanced"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 1025</t>
+  </si>
+  <si>
+    <t>TcpPort: 65534</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 65535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 3260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 2 -s "iptype=4,dhcp=disable,primaryip=10.84.2.241,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=4093,iptype=6,dhcp=enable,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlan of physical type should be added by "vlantag=2,iptype=4,dhcp=enable,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlan of physical type should be added by "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65535,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of physical type should be added by "iptype=4,dhcp=disable,primaryip=10.84.2.241,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlan of physical type should be added by "vlantag=4093,iptype=6,dhcp=enable,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 3260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t portal -i 4 -s "vlantag=520,dhcp=disable,tcpport=65533,primaryip=10.84.2.250,primaryipmask=255.255.255.0,attribute=advanced"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(io|advanced)</t>
+  </si>
+  <si>
+    <t>tcpport: invalid setting 65536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(io|advanced)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">tcpport: invalid setting -1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation failed as the trunk id specified is invalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting trunk id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=1026,trunkid=0,porttype=io,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=4,dhcp=enable,tcpport=1026,trunkid=0,porttype=io,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>TcpPort: 1026</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=1025,trunkid=0,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=4,dhcp=enable,tcpport=1025,trunkid=0,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>portal of physical type should be added by "iptype=4,dhcp=enable,tcpport=1026,porttype=io,attribute=advanced"</t>
+  </si>
+  <si>
+    <t>portal of physical type should be added by "iptype=4,dhcp=enable,tcpport=1025,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlan of physical type should be added by "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 2 -s "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:6:5:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65535,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=4094,iptype=6,dhcp=disable,primaryip=A:B:C:D:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,porttype=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of physical type should be added by "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:5:6:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65535,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlan of physical type should be added by "vlantag=4094,iptype=6,dhcp=disable,primaryip=A:B:C:D:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,porttype=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t portal -i 1 -s "tcpport=3260,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t portal -i 1 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal 1 should be modified by "tcpport=3260,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal 4 should be modified by "vlantag=520,dhcp=disable,tcpport=65533,primaryip=10.84.2.250,primaryipmask=255.255.255.0,attribute=advanced"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=2000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=3,iptype=4,dhcp=enable,tcpport=2000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=1026,porttype=io,attribute=advanced"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=1025,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t portal -v -i 2</t>
+  </si>
+  <si>
     <t>Dhcp: Disabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InterfaceType: VLAN</t>
-  </si>
-  <si>
-    <t>PrimaryIp: 10.84.2.253</t>
+    <t>TcpPort: 65534</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryIp: 10.84.2.241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 65535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 3260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute: IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IpType: 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TcpPort: 65534</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gives summary information about iSCSI status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssignedPortals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t target</t>
-  </si>
-  <si>
-    <t>iscsi -t port</t>
-  </si>
-  <si>
-    <t>PortId:</t>
-  </si>
-  <si>
-    <t>iscsi -t session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t portal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specifies iSCSI port as the device type to display</t>
-  </si>
-  <si>
-    <t>all iSCSI port as the device type to display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Display session information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Displays the logged in devices information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Display port or session statistics information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -r 2 -p 1 -t stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CtrlId:</t>
-  </si>
-  <si>
-    <t>JumboFrame:</t>
-  </si>
-  <si>
-    <t>PortStatus:</t>
-  </si>
-  <si>
-    <t>LinkStats:</t>
-  </si>
-  <si>
-    <t>MacAddress:</t>
-  </si>
-  <si>
-    <t>MaxSupportSpeed:</t>
-  </si>
-  <si>
-    <t>CurrentSpeed:</t>
-  </si>
-  <si>
-    <t>RelativePortals:</t>
-  </si>
-  <si>
-    <t>PortId: 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -r 2 -t port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t portal -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Display all portal information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Display portal 0 information</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PortalID</t>
-  </si>
-  <si>
-    <t>CtrlID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PortID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VLANTag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrunkID</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>MacTransFrame:</t>
-  </si>
-  <si>
-    <t>MacTransBytes:</t>
-  </si>
-  <si>
-    <t>MacRcvFrame:</t>
-  </si>
-  <si>
-    <t>MacRcvBytes:</t>
-  </si>
-  <si>
-    <t>iscsi -r 2 -t port -p 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -v</t>
-  </si>
-  <si>
-    <t>iscsi -t target -v</t>
-  </si>
-  <si>
-    <t>iscsi -t port -v</t>
-  </si>
-  <si>
-    <t>iscsi -r 2 -t port -v</t>
-  </si>
-  <si>
-    <t>iscsi -r 2 -t port -p 1 -v</t>
-  </si>
-  <si>
-    <t>iscsi -t session -v</t>
-  </si>
-  <si>
-    <t>iscsi -t portal -v</t>
-  </si>
-  <si>
-    <t>iscsi -t portal -i 0 -v</t>
-  </si>
-  <si>
-    <t>iscsi -t device -v</t>
-  </si>
-  <si>
-    <t>iscsi -r 2 -p 1 -t stats -v</t>
-  </si>
-  <si>
-    <t>Gives summary information about iSCSI status by verbose mode</t>
-  </si>
-  <si>
-    <t>all iSCSI port as the device type to display by verbose mode</t>
-  </si>
-  <si>
-    <t>Specifies iSCSI port as the device type to display by verbose mode</t>
-  </si>
-  <si>
-    <t>Display session information by verbose mode</t>
-  </si>
-  <si>
-    <t>Display all portal information by verbose mode</t>
-  </si>
-  <si>
-    <t>Display portal 0 information by verbose mode</t>
-  </si>
-  <si>
-    <t>Displays the logged in devices information by verbose mode</t>
-  </si>
-  <si>
-    <t>Display port or session statistics information by verbose mode</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Id:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alias:</t>
-  </si>
-  <si>
-    <t>ImmediateData:</t>
-  </si>
-  <si>
-    <t>InitialR2t:</t>
-  </si>
-  <si>
-    <t>HeaderDigest:</t>
-  </si>
-  <si>
-    <t>DataDigest:</t>
-  </si>
-  <si>
-    <t>UniChapAuth:</t>
-  </si>
-  <si>
-    <t>BiChapAuth:</t>
-  </si>
-  <si>
-    <t>DataPduInOrder:</t>
-  </si>
-  <si>
-    <t>DataSeqInOrder:</t>
-  </si>
-  <si>
-    <t>MaxOutstandingR2t:</t>
-  </si>
-  <si>
-    <t>MaxConnects:</t>
-  </si>
-  <si>
-    <t>FirstBurstLength:</t>
-  </si>
-  <si>
-    <t>MaxBurstLength:</t>
-  </si>
-  <si>
-    <t>DefTimeToWait:</t>
-  </si>
-  <si>
-    <t>DefTimeToRetain:</t>
-  </si>
-  <si>
-    <t>ErrorRecoveryLevel:</t>
-  </si>
-  <si>
-    <t>Status:</t>
-  </si>
-  <si>
-    <t>KeepAlive:</t>
-  </si>
-  <si>
-    <t>AssnPortalIds:</t>
-  </si>
-  <si>
-    <t>TcpPort:</t>
-  </si>
-  <si>
-    <t>Dhcp:</t>
-  </si>
-  <si>
-    <t>InterfaceType:</t>
-  </si>
-  <si>
-    <t>InterfaceName:</t>
-  </si>
-  <si>
-    <t>IpType:</t>
-  </si>
-  <si>
-    <t>PrimaryIp:</t>
-  </si>
-  <si>
-    <t>PrimaryIpMask:</t>
-  </si>
-  <si>
-    <t>Gateway:</t>
-  </si>
-  <si>
-    <t>AssnTargets:</t>
-  </si>
-  <si>
-    <t>SecondRoute:</t>
-  </si>
-  <si>
-    <t>RouteInterface:</t>
-  </si>
-  <si>
-    <t>iscsi -t target -v -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UniChapAuth: Enabled</t>
-  </si>
-  <si>
-    <t>BiChapAuth: Disabled</t>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -i 0 -s "unichapauth=disable,bichapauth=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BiChapAuth: Enabled</t>
-  </si>
-  <si>
-    <t>UniChapAuth: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BiChapAuth: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -i 0 -s "alias=test-test-test-test-test-test31,unichapauth=enable,bichapauth=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target should be modified by "alias=test-test-test-test-test-test31,unichapauth=enable,bichapauth=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target should be modified by "unichapauth=disable,bichapauth=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target should be modified by "alias=test-test-test-test-test-tes30,unichapauth=enable,bichapauth=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -i 0 -s "alias=test-test-test-test-test-tes30,unichapauth=enable,bichapauth=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alias: 12</t>
-  </si>
-  <si>
-    <t>HeaderDigest: Enabled</t>
-  </si>
-  <si>
-    <t>DataDigest: Disabled</t>
-  </si>
-  <si>
-    <t>Alias: Tt3</t>
-  </si>
-  <si>
-    <t>HeaderDigest: Disabled</t>
-  </si>
-  <si>
-    <t>DataDigest: Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alias: test-test-test-test-test-tes30</t>
-  </si>
-  <si>
-    <t>Alias: test-test-test-test-test-test31</t>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -i 0 -s "alias=12,headerdigest=enable,datadigest=disable,keepalive=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -i 0 -s "alias=Tt3,headerdigest=disable,datadigest=enable,keepalive=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target should be modified by "alias=Tt3,headerdigest=disable,datadigest=enable,keepalive=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target should be modified by "alias=12,headerdigest=enable,datadigest=disable,keepalive=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeepAlive: Enabled</t>
-  </si>
-  <si>
-    <t>KeepAlive: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -r 2 -t port -p 1 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -r 2 -t port -p 2 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -r 2 -t port -p 2 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t portal -i 0 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumboFrame: Enabled</t>
-  </si>
-  <si>
-    <t>JumboFrame: Disabled</t>
-  </si>
-  <si>
-    <t>PrimaryIp: 10.84.2.240</t>
-  </si>
-  <si>
-    <t>Gateway: 0.0.0.0</t>
-  </si>
-  <si>
-    <t>VlanTag: 520</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TcpPort: 65533</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryIp: 10.84.2.250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi portal 1 should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -r 3 -t port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t session -i test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t portal -i test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -r 2 -p 1 -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -i 0 -s "alias=test-test-test-test-test-test-32"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -i 0 -s "headerdigest=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -i 0 -s "datadigest=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -i 0 -s "keepalive=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -i 0 -s "unichapauth=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -i 0 -s "bichapauth=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -r 2 -t port -p 1 -s "port=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a del -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a del -t portal -i 32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a del -t portal -i 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting ctrl id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting port id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting session id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting portal id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting device id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting ip type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting dhcp value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting tcp port value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting trunk value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting primary ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting primary ip mask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting gateway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting vlan value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting alias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting header digest value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting data digest value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting keepalive value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting unichapauth value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting bichapauth value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting port value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -r 2 -t port -p 1 -s "jumboframe=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting jumboframe value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting vlantag value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting portal id when executes deleting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting portal id when executes deleting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-r: invalid setting 3 (1,2)</t>
-  </si>
-  <si>
-    <t>(phy|trunk|vlan)</t>
-  </si>
-  <si>
-    <t>iptype: invalid setting 7 (4|6)</t>
-  </si>
-  <si>
-    <t>dhcp: invalid setting 0 (enable|disable)</t>
-  </si>
-  <si>
-    <t>trunkid: invalid setting -1 (0,7)</t>
-  </si>
-  <si>
-    <t>trunkid: invalid setting 8 (0,7)</t>
-  </si>
-  <si>
-    <t>invalid primary_ip: 256.84.2.132</t>
-  </si>
-  <si>
-    <t>invalid primary_ip_mask: 256.255.255.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invalid gateway: 10.256.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invalid primary_ip: G:1:2:3:0:0:0:0</t>
-  </si>
-  <si>
-    <t>vlantag: invalid setting 0 (1,4094)</t>
-  </si>
-  <si>
-    <t>vlantag: invalid setting 4095 (1,4094)</t>
-  </si>
-  <si>
-    <t>alias: invalid setting test-test-test-test-test-test-32</t>
-  </si>
-  <si>
-    <t>headerdigest: invalid setting 0 (enable|disable)</t>
-  </si>
-  <si>
-    <t>datadigest: invalid setting 0 (enable|disable)</t>
-  </si>
-  <si>
-    <t>keepalive: invalid setting 1 (enable|disable)</t>
-  </si>
-  <si>
-    <t>unichapauth: invalid setting 0 (enable|disable)</t>
-  </si>
-  <si>
-    <t>bichapauth: invalid setting 1 (enable|disable)</t>
-  </si>
-  <si>
-    <t>port: invalid setting 1 (enable|disable)</t>
-  </si>
-  <si>
-    <t>jumboframe: invalid setting 0 (enable|disable)</t>
-  </si>
-  <si>
-    <t>Operation failed as the portal id specified is invalid</t>
-  </si>
-  <si>
-    <t>iscsi -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -s "test=4,dhcp=enable,tcpport=65533,trunkid=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -i 0 -s "test=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a del -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t session -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t portal -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t device -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t target -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t port -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">iscsi -a add -t </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">iscsi -a add -t portal -m trunk -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">iscsi -a add -t portal -m </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t target -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">iscsi -a mod -t target -i 0 -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a del -t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a del -t portal -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid parameter</t>
-  </si>
-  <si>
-    <t>PrimaryIp: 10.84.2.241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -r 2 -t port -p 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PortId: 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:0:0:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65534,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=disable,primaryip=A:B:0:0:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:0:0:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65534,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=6,dhcp=disable,primaryip=A:B:0:0:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PortType: Mgmt</t>
-  </si>
-  <si>
-    <t>PortType: IO</t>
-  </si>
-  <si>
-    <t>Attribute: IO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=6,dhcp=enable,tcpport=65534,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of physical type should be added by "iptype=6,dhcp=enable,tcpport=65534,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -s "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:0:0:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65535,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of physical type should be added by "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:0:0:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65535,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -s "iptype=6,dhcp=disable,primaryip=A:B:0:0:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of physical type should be added by "iptype=6,dhcp=disable,primaryip=A:B:0:0:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=4094,iptype=6,dhcp=disable,primaryip=0:1:2:3:0:0:0:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65535,porttype=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vlan of physical type should be added by "vlantag=4094,iptype=6,dhcp=disable,primaryip=0:1:2:3:0:0:0:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65535,porttype=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=4094,iptype=6,dhcp=disable,primaryip=A:B:0:0:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,porttype=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vlan of physical type should be added by "vlantag=4094,iptype=6,dhcp=disable,primaryip=A:B:0:0:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,porttype=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t portal -v -i 10</t>
-  </si>
-  <si>
-    <t>iscsi -t portal -v -i 11</t>
-  </si>
-  <si>
-    <t>iscsi -t portal -v -i 12</t>
-  </si>
-  <si>
-    <t>iscsi -t portal -v -i 13</t>
-  </si>
-  <si>
-    <t>PortType</t>
-  </si>
-  <si>
-    <t>PortType:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attribute:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a del -t portal -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a del -t portal -i 1</t>
-  </si>
-  <si>
-    <t>iscsi -a del -t portal -i 2</t>
-  </si>
-  <si>
-    <t>iscsi portal 0 should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi portal 2 should be deleted</t>
-  </si>
-  <si>
-    <t>iscsi -t portal -i 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t portal -i 2</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=7,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=0,tcpport=0,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=-1,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=65536,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=-1,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=8,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -s "iptype=4,dhcp=enable,tcpport=0,porttype=test,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m vlan -s "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting porttype value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting attribute value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(io|mgmt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=256.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=1,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=251.84.2.132,primaryipmask=256.255.255.0,gateway=10.84.2.1,tcpport=1,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=251.84.2.132,primaryipmask=255.255.255.0,gateway=10.256.2.1,tcpport=1,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=disable,primaryip=G:1:2:3:0:0:0:0,primaryipmask=::,gateway=::,tcpport=0,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=0,iptype=4,dhcp=enable,tcpport=65535,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=4095,iptype=4,dhcp=enable,tcpport=65535,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t portal -i 4 -s "tcpport=65536,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t portal -i 5 -s "vlantag=0,tcpport=65533,primaryip=10.84.2.250"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t portal -i 6 -s "porttype=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t portal -i 7 -s "attribute=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -r 2 -t port -p 1 -s "jumboframe=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -r 2 -t port -p 1 -s "jumboframe=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -r 2 -t port -p 2 -s "jumboframe=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -r 2 -t port -p 2 -s "jumboframe=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 1 on ctrl 2 should be modified by "jumboframe=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 1 on ctrl 2 should be modified by "jumboframe=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 2 on ctrl 2 should be modified by "jumboframe=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 2 on ctrl 2 should be modified by "jumboframe=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryIp: 10.84.2.132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation failed as the portal id specified is invalid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(target|port|portal|session|device)</t>
-  </si>
-  <si>
-    <t>iscsi -t device -i 65536</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-i: invalid setting 65536 (0,65535)</t>
-  </si>
-  <si>
-    <t>iscsi -t portal -i 65536</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t session -i 65536</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -r 2 -t port -p 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-p: invalid setting 5 (1,4)</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=advanced"</t>
-  </si>
-  <si>
-    <t>vlan of physical type should be added by "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=advanced"</t>
-  </si>
-  <si>
-    <t>Attribute: Advanced</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attribute: Advanced</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t portal -i 4 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=3,iptype=4,dhcp=enable,tcpport=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=10.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,tcpport=65535,trunkid=0,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=4,dhcp=disable,primaryip=10.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=6,dhcp=enable,tcpport=65535,trunkid=0,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=6,dhcp=enable,trunkid=0,porttype=mgmt,attribute=advanced"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,trunkid=0,porttype=mgmt,attribute=advanced"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TcpPort: 1025</t>
-  </si>
-  <si>
-    <t>TcpPort: 65534</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TcpPort: 65535</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TcpPort: 3260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -s "iptype=4,dhcp=disable,primaryip=10.84.2.241,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=4093,iptype=6,dhcp=enable,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vlan of physical type should be added by "vlantag=2,iptype=4,dhcp=enable,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vlan of physical type should be added by "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65535,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of physical type should be added by "iptype=4,dhcp=disable,primaryip=10.84.2.241,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vlan of physical type should be added by "vlantag=4093,iptype=6,dhcp=enable,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal 0 should be modified by "tcpport=3260,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TcpPort: 3260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t portal -i 0 -s "tcpport=3260,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t portal -i 4 -s "vlantag=520,dhcp=disable,tcpport=65533,primaryip=10.84.2.250,primaryipmask=255.255.255.0,attribute=advanced"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal 2 should be modified by "vlantag=520,dhcp=disable,tcpport=65533,primaryip=10.84.2.250,primaryipmask=255.255.255.0,attribute=advanced"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(io|advanced)</t>
-  </si>
-  <si>
-    <t>tcpport: invalid setting 65536</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(io|advanced)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">tcpport: invalid setting -1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation failed as the trunk id specified is invalid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting trunk id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=1026,trunkid=0,porttype=io,attribute=advanced"</t>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=4,dhcp=enable,tcpport=1026,trunkid=0,porttype=io,attribute=advanced"</t>
-  </si>
-  <si>
-    <t>TcpPort: 1026</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=1025,trunkid=0,porttype=io,attribute=io"</t>
-  </si>
-  <si>
-    <t>portal of trunk type should be added by "iptype=4,dhcp=enable,tcpport=1025,trunkid=0,porttype=io,attribute=io"</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=1026,porttype=io,attribute=advanced"</t>
-  </si>
-  <si>
-    <t>portal of physical type should be added by "iptype=4,dhcp=enable,tcpport=1026,porttype=io,attribute=advanced"</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=1025,porttype=io,attribute=io"</t>
-  </si>
-  <si>
-    <t>portal of physical type should be added by "iptype=4,dhcp=enable,tcpport=1025,porttype=io,attribute=io"</t>
+    <t>PrimaryIp: 0:1:2:3:0:6:5:0</t>
+  </si>
+  <si>
+    <t>PrimaryIp: 0:1:2:3::</t>
+  </si>
+  <si>
+    <t>Gateway: ::7:8:9:0:0</t>
+  </si>
+  <si>
+    <t>PrimaryIp: a:b:c:d::</t>
+  </si>
+  <si>
+    <t>Gateway: e:f:0:3::</t>
+  </si>
+  <si>
+    <t>PrimaryIp: a:b::</t>
+  </si>
+  <si>
+    <t>PrimaryIp: ::</t>
+  </si>
+  <si>
+    <t>Gateway: ::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrimaryIpMask: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryIpMask: 0:0:0:7:8:9:0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryIpMask: c:d:2::</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryIpMask: 4:5:6::</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1789,10 +1834,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1804,7 +1849,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -1813,18 +1858,18 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="J2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1836,7 +1881,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1845,18 +1890,18 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="J3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1868,7 +1913,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1877,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1888,10 +1933,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1903,7 +1948,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -1912,18 +1957,18 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="J5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1935,7 +1980,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -1944,18 +1989,18 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="J6" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -1987,10 +2032,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -2031,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2040,7 +2085,7 @@
     <col min="1" max="1" width="193.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="190.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.375" bestFit="1" customWidth="1"/>
@@ -2064,10 +2109,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2079,24 +2124,24 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2108,42 +2153,42 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
+        <v>379</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -2154,28 +2199,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
@@ -2186,13 +2231,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -2201,27 +2246,27 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I6" t="s">
-        <v>274</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -2233,76 +2278,94 @@
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I7" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>378</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
       </c>
+      <c r="H8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I8" t="s">
+        <v>392</v>
+      </c>
+      <c r="J8" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>390</v>
+      </c>
+      <c r="I9" t="s">
+        <v>392</v>
+      </c>
+      <c r="J9" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
-        <v>285</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2311,30 +2374,30 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>384</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>393</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2343,77 +2406,77 @@
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>389</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>394</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>385</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>395</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>377</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>387</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>394</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -2465,276 +2528,276 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>60</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>61</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>62</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>63</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>61</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>62</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>63</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
         <v>59</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>60</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>61</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>62</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>63</v>
-      </c>
-      <c r="I7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>73</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>74</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>75</v>
       </c>
-      <c r="G9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" t="s">
-        <v>78</v>
-      </c>
       <c r="J9" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>75</v>
       </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" t="s">
-        <v>78</v>
-      </c>
       <c r="J10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
         <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2831,403 +2894,403 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>105</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>106</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>107</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>108</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>109</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>110</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>111</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>112</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>113</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>114</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>115</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>116</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>117</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>118</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>119</v>
-      </c>
-      <c r="U2" t="s">
-        <v>120</v>
-      </c>
-      <c r="V2" t="s">
-        <v>121</v>
-      </c>
-      <c r="W2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
         <v>102</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>103</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>104</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>105</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>106</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>107</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>108</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>109</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>110</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>111</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>112</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>113</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>114</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>116</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>117</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>118</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>119</v>
-      </c>
-      <c r="U3" t="s">
-        <v>120</v>
-      </c>
-      <c r="V3" t="s">
-        <v>121</v>
-      </c>
-      <c r="W3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>60</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>61</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>62</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>63</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>61</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>62</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>63</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" t="s">
         <v>123</v>
       </c>
-      <c r="E8" t="s">
+      <c r="K8" t="s">
         <v>124</v>
       </c>
-      <c r="F8" t="s">
+      <c r="L8" t="s">
         <v>125</v>
       </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>126</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" t="s">
         <v>127</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>128</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>129</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q8" t="s">
         <v>130</v>
       </c>
-      <c r="O8" t="s">
-        <v>131</v>
-      </c>
-      <c r="P8" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>133</v>
-      </c>
       <c r="R8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="S8" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" t="s">
         <v>123</v>
       </c>
-      <c r="E9" t="s">
+      <c r="K9" t="s">
         <v>124</v>
       </c>
-      <c r="F9" t="s">
+      <c r="L9" t="s">
         <v>125</v>
       </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>126</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
         <v>127</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>128</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>129</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
         <v>130</v>
       </c>
-      <c r="O9" t="s">
-        <v>131</v>
-      </c>
-      <c r="P9" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>133</v>
-      </c>
       <c r="R9" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="S9" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
         <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3241,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3273,213 +3336,213 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" t="s">
         <v>155</v>
-      </c>
-      <c r="B3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
         <v>135</v>
-      </c>
-      <c r="F4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
         <v>137</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
         <v>160</v>
-      </c>
-      <c r="D7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>369</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G12" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3523,44 +3586,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3574,8 +3637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3599,7 +3662,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -3610,51 +3673,51 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -3665,29 +3728,29 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -3698,227 +3761,227 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="C16" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B24" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C24" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -3930,145 +3993,145 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C32" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C35" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C37" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C42" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C43" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -4079,24 +4142,24 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C45" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C46" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4133,7 +4196,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4144,7 +4207,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4155,7 +4218,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4166,7 +4229,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -4177,7 +4240,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -4188,7 +4251,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -4199,7 +4262,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -4210,7 +4273,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -4227,10 +4290,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4252,7 +4315,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4263,7 +4326,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -4274,7 +4337,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4285,7 +4348,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -4296,7 +4359,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -4307,7 +4370,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -4318,7 +4381,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -4329,7 +4392,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -4340,7 +4403,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -4351,7 +4414,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -4361,8 +4424,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>372</v>
+      </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -4370,7 +4436,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -4381,7 +4447,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -4392,7 +4458,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -4403,7 +4469,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -4414,7 +4480,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -4425,7 +4491,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -4436,7 +4502,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -4447,23 +4513,12 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>263</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
         <v>1</v>
       </c>
     </row>

--- a/data/iscsi.xlsx
+++ b/data/iscsi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="884" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_trunk_portal" sheetId="20" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="397">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1041,38 +1041,10 @@
     <t>iscsi -t portal -i 2</t>
   </si>
   <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=7,dhcp=enable,tcpport=0,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=0,tcpport=0,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=-1,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=65536,trunkid=0,porttype=io,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=-1,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=8,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -s "iptype=4,dhcp=enable,tcpport=0,porttype=test,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m vlan -s "iptype=4,dhcp=enable,tcpport=0,porttype=io,attribute=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Invalid setting porttype value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,22 +1057,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=256.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=1,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=251.84.2.132,primaryipmask=256.255.255.0,gateway=10.84.2.1,tcpport=1,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=251.84.2.132,primaryipmask=255.255.255.0,gateway=10.256.2.1,tcpport=1,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=disable,primaryip=G:1:2:3:0:0:0:0,primaryipmask=::,gateway=::,tcpport=0,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=0,iptype=4,dhcp=enable,tcpport=65535,porttype=io,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1241,10 +1197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65534,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,porttype=mgmt,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1288,14 +1240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">tcpport: invalid setting -1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=0,trunkid=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Operation failed as the trunk id specified is invalid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1450,6 +1394,58 @@
   <si>
     <t>PrimaryIpMask: 4:5:6::</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65535,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=1026,trunkid=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=7,dhcp=enable,tcpport=1026,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=0,tcpport=1026,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=1024,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcpport: invalid setting 1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,trunkid=-1,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,trunkid=8,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -s "iptype=4,dhcp=enable,porttype=test,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m vlan -s "iptype=4,dhcp=enable,porttype=io,attribute=test"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=disable,primaryip=G:1:2:3:0:0:0:0,primaryipmask=::,gateway=::,trunkid=0,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=256.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,trunkid=0,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=251.84.2.132,primaryipmask=256.255.255.0,gateway=10.84.2.1,trunkid=0,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=251.84.2.132,primaryipmask=255.255.255.0,gateway=10.256.2.1,trunkid=0,porttype=io,attribute=io"</t>
   </si>
 </sst>
 </file>
@@ -1834,10 +1830,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1849,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -1866,10 +1862,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1881,7 +1877,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1893,15 +1889,15 @@
         <v>268</v>
       </c>
       <c r="J3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1913,7 +1909,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1922,7 +1918,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1933,10 +1929,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1948,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -1965,10 +1961,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1980,7 +1976,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -1992,7 +1988,7 @@
         <v>267</v>
       </c>
       <c r="J6" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -2076,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2109,10 +2105,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2124,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
@@ -2138,10 +2134,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2153,7 +2149,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -2162,33 +2158,33 @@
         <v>268</v>
       </c>
       <c r="I3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F4" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -2199,10 +2195,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -2211,10 +2207,10 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F5" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G5" t="s">
         <v>37</v>
@@ -2231,10 +2227,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2246,7 +2242,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
@@ -2255,15 +2251,15 @@
         <v>267</v>
       </c>
       <c r="I6" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -2284,7 +2280,7 @@
         <v>267</v>
       </c>
       <c r="I7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -2298,74 +2294,74 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="I8" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="J8" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="I9" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="J9" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E10" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2374,13 +2370,13 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="I10" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="J10" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -2394,10 +2390,10 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E11" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2406,13 +2402,13 @@
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="I11" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="J11" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -2426,10 +2422,10 @@
         <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E12" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -2438,30 +2434,30 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="I12" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J12" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C13" t="s">
         <v>277</v>
       </c>
       <c r="D13" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E13" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -2470,13 +2466,13 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="I13" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="J13" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2491,7 +2487,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2716,7 +2712,7 @@
         <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>383</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -2748,7 +2744,7 @@
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>383</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3439,10 +3435,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
         <v>157</v>
@@ -3453,10 +3449,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C8" t="s">
         <v>85</v>
@@ -3467,10 +3463,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C9" t="s">
         <v>158</v>
@@ -3481,10 +3477,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
         <v>159</v>
@@ -3495,16 +3491,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C11" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="D11" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -3524,13 +3520,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D12" t="s">
         <v>164</v>
@@ -3542,7 +3538,7 @@
         <v>166</v>
       </c>
       <c r="G12" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3637,8 +3633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3679,7 +3675,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -3690,7 +3686,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -3706,13 +3702,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B6" t="s">
         <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -3728,24 +3724,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B8" t="s">
         <v>190</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B9" t="s">
         <v>191</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -3761,13 +3757,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B11" t="s">
         <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -3778,7 +3774,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -3800,7 +3796,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -3816,18 +3812,18 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C16" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>385</v>
       </c>
       <c r="B17" t="s">
         <v>193</v>
@@ -3838,7 +3834,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="B18" t="s">
         <v>194</v>
@@ -3849,29 +3845,29 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>290</v>
+        <v>387</v>
       </c>
       <c r="B19" t="s">
         <v>195</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
         <v>195</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>292</v>
+        <v>389</v>
       </c>
       <c r="B21" t="s">
         <v>196</v>
@@ -3882,7 +3878,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>293</v>
+        <v>390</v>
       </c>
       <c r="B22" t="s">
         <v>196</v>
@@ -3893,29 +3889,29 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="B23" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>295</v>
+        <v>392</v>
       </c>
       <c r="B24" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C24" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>299</v>
+        <v>394</v>
       </c>
       <c r="B25" t="s">
         <v>197</v>
@@ -3926,7 +3922,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="B26" t="s">
         <v>198</v>
@@ -3937,7 +3933,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>301</v>
+        <v>396</v>
       </c>
       <c r="B27" t="s">
         <v>199</v>
@@ -3948,7 +3944,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>302</v>
+        <v>393</v>
       </c>
       <c r="B28" t="s">
         <v>197</v>
@@ -3959,7 +3955,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
         <v>200</v>
@@ -3970,7 +3966,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s">
         <v>200</v>
@@ -4083,19 +4079,19 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s">
         <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B41" t="s">
         <v>210</v>
@@ -4107,25 +4103,25 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C42" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B43" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C43" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D43" s="3"/>
     </row>
@@ -4159,7 +4155,7 @@
         <v>212</v>
       </c>
       <c r="C46" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4425,7 +4421,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -4436,7 +4432,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>

--- a/data/iscsi.xlsx
+++ b/data/iscsi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="884" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="add_trunk_portal" sheetId="20" r:id="rId1"/>
@@ -1277,175 +1277,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=4094,iptype=6,dhcp=disable,primaryip=A:B:C:D:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,porttype=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of physical type should be added by "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:5:6:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65535,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlan of physical type should be added by "vlantag=4094,iptype=6,dhcp=disable,primaryip=A:B:C:D:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,porttype=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a mod -t portal -i 1 -s "tcpport=3260,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t portal -i 1 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal 1 should be modified by "tcpport=3260,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal 4 should be modified by "vlantag=520,dhcp=disable,tcpport=65533,primaryip=10.84.2.250,primaryipmask=255.255.255.0,attribute=advanced"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=2000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=3,iptype=4,dhcp=enable,tcpport=2000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=1026,porttype=io,attribute=advanced"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=1025,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -t portal -v -i 2</t>
+  </si>
+  <si>
+    <t>Dhcp: Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 65534</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryIp: 10.84.2.241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 65535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpPort: 3260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute: IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IpType: 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryIp: 0:1:2:3:0:6:5:0</t>
+  </si>
+  <si>
+    <t>PrimaryIp: 0:1:2:3::</t>
+  </si>
+  <si>
+    <t>Gateway: ::7:8:9:0:0</t>
+  </si>
+  <si>
+    <t>PrimaryIp: a:b:c:d::</t>
+  </si>
+  <si>
+    <t>Gateway: e:f:0:3::</t>
+  </si>
+  <si>
+    <t>PrimaryIp: a:b::</t>
+  </si>
+  <si>
+    <t>PrimaryIp: ::</t>
+  </si>
+  <si>
+    <t>Gateway: ::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrimaryIpMask: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryIpMask: c:d:2::</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryIpMask: 4:5:6::</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65535,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=1026,trunkid=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=7,dhcp=enable,tcpport=1026,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=0,tcpport=1026,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=1024,trunkid=0,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcpport: invalid setting 1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,trunkid=-1,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,trunkid=8,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -s "iptype=4,dhcp=enable,porttype=test,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m vlan -s "iptype=4,dhcp=enable,porttype=io,attribute=test"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=disable,primaryip=G:1:2:3:0:0:0:0,primaryipmask=::,gateway=::,trunkid=0,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=256.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,trunkid=0,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=251.84.2.132,primaryipmask=256.255.255.0,gateway=10.84.2.1,trunkid=0,porttype=io,attribute=io"</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=251.84.2.132,primaryipmask=255.255.255.0,gateway=10.256.2.1,trunkid=0,porttype=io,attribute=io"</t>
+  </si>
+  <si>
     <t>iscsi -a add -t portal -r 2 -p 2 -s "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:6:5:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65535,porttype=io,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=4094,iptype=6,dhcp=disable,primaryip=A:B:C:D:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,porttype=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal of physical type should be added by "iptype=6,dhcp=disable,primaryip=0:1:2:3:0:5:6:0,primaryipmask=4:5:6:0:0:0:0:0,gateway=0:0:0:7:8:9:0:0,tcpport=65535,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vlan of physical type should be added by "vlantag=4094,iptype=6,dhcp=disable,primaryip=A:B:C:D:0:0:0:0,primaryipmask=C:D:2:0:0:0:0:0,gateway=E:F:0:3:0:0:0:0,tcpport=65535,porttype=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a mod -t portal -i 1 -s "tcpport=3260,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t portal -i 1 -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal 1 should be modified by "tcpport=3260,dhcp=disable,primaryip=10.84.2.240,primaryipmask=255.255.255.0,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portal 4 should be modified by "vlantag=520,dhcp=disable,tcpport=65533,primaryip=10.84.2.250,primaryipmask=255.255.255.0,attribute=advanced"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=2000"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=3,iptype=4,dhcp=enable,tcpport=2000"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=1026,porttype=io,attribute=advanced"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m phy -s "iptype=4,dhcp=enable,tcpport=1025,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -t portal -v -i 2</t>
-  </si>
-  <si>
-    <t>Dhcp: Disabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TcpPort: 65534</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryIp: 10.84.2.241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TcpPort: 65535</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TcpPort: 3260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attribute: IO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IpType: 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryIp: 0:1:2:3:0:6:5:0</t>
-  </si>
-  <si>
-    <t>PrimaryIp: 0:1:2:3::</t>
-  </si>
-  <si>
-    <t>Gateway: ::7:8:9:0:0</t>
-  </si>
-  <si>
-    <t>PrimaryIp: a:b:c:d::</t>
-  </si>
-  <si>
-    <t>Gateway: e:f:0:3::</t>
-  </si>
-  <si>
-    <t>PrimaryIp: a:b::</t>
-  </si>
-  <si>
-    <t>PrimaryIp: ::</t>
-  </si>
-  <si>
-    <t>Gateway: ::</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrimaryIpMask: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryIpMask: 0:0:0:7:8:9:0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryIpMask: c:d:2::</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PrimaryIpMask: 4:5:6::</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65535,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=1026,trunkid=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=7,dhcp=enable,tcpport=1026,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=0,tcpport=1026,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,tcpport=1024,trunkid=0,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tcpport: invalid setting 1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,trunkid=-1,porttype=io,attribute=io"</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=enable,trunkid=8,porttype=io,attribute=io"</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -s "iptype=4,dhcp=enable,porttype=test,attribute=io"</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m vlan -s "iptype=4,dhcp=enable,porttype=io,attribute=test"</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=disable,primaryip=G:1:2:3:0:0:0:0,primaryipmask=::,gateway=::,trunkid=0,porttype=io,attribute=io"</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=256.84.2.132,primaryipmask=255.255.255.0,gateway=10.84.2.1,trunkid=0,porttype=io,attribute=io"</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=251.84.2.132,primaryipmask=256.255.255.0,gateway=10.84.2.1,trunkid=0,porttype=io,attribute=io"</t>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=4,dhcp=disable,primaryip=251.84.2.132,primaryipmask=255.255.255.0,gateway=10.256.2.1,trunkid=0,porttype=io,attribute=io"</t>
   </si>
 </sst>
 </file>
@@ -1796,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2072,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s">
         <v>347</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
         <v>346</v>
@@ -2169,22 +2169,22 @@
         <v>332</v>
       </c>
       <c r="C4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F4" t="s">
         <v>363</v>
-      </c>
-      <c r="F4" t="s">
-        <v>364</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s">
         <v>331</v>
@@ -2207,10 +2207,10 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G5" t="s">
         <v>37</v>
@@ -2242,7 +2242,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
@@ -2251,7 +2251,7 @@
         <v>267</v>
       </c>
       <c r="I6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -2280,7 +2280,7 @@
         <v>267</v>
       </c>
       <c r="I7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -2294,25 +2294,25 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
       </c>
       <c r="H8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I8" t="s">
+        <v>377</v>
+      </c>
+      <c r="J8" t="s">
         <v>376</v>
-      </c>
-      <c r="I8" t="s">
-        <v>378</v>
-      </c>
-      <c r="J8" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -2326,42 +2326,42 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="s">
+        <v>375</v>
+      </c>
+      <c r="I9" t="s">
+        <v>377</v>
+      </c>
+      <c r="J9" t="s">
         <v>376</v>
-      </c>
-      <c r="I9" t="s">
-        <v>378</v>
-      </c>
-      <c r="J9" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2370,13 +2370,13 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I10" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="J10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -2390,10 +2390,10 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2402,13 +2402,13 @@
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -2422,10 +2422,10 @@
         <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -2434,30 +2434,30 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I12" t="s">
+        <v>379</v>
+      </c>
+      <c r="J12" t="s">
         <v>371</v>
-      </c>
-      <c r="I12" t="s">
-        <v>381</v>
-      </c>
-      <c r="J12" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C13" t="s">
         <v>277</v>
       </c>
       <c r="D13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -2466,13 +2466,13 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
+        <v>372</v>
+      </c>
+      <c r="I13" t="s">
+        <v>378</v>
+      </c>
+      <c r="J13" t="s">
         <v>373</v>
-      </c>
-      <c r="I13" t="s">
-        <v>380</v>
-      </c>
-      <c r="J13" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2712,7 +2712,7 @@
         <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -2744,7 +2744,7 @@
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3491,13 +3491,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" t="s">
         <v>354</v>
-      </c>
-      <c r="B11" t="s">
-        <v>356</v>
-      </c>
-      <c r="C11" t="s">
-        <v>355</v>
       </c>
       <c r="D11" t="s">
         <v>334</v>
@@ -3523,7 +3523,7 @@
         <v>335</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C12" t="s">
         <v>316</v>
@@ -3633,8 +3633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B16" t="s">
         <v>340</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
         <v>193</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B18" t="s">
         <v>194</v>
@@ -3845,13 +3845,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
         <v>195</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -3867,7 +3867,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B21" t="s">
         <v>196</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B22" t="s">
         <v>196</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B23" t="s">
         <v>289</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B24" t="s">
         <v>290</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B25" t="s">
         <v>197</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B26" t="s">
         <v>198</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B27" t="s">
         <v>199</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B28" t="s">
         <v>197</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>

--- a/data/iscsi.xlsx
+++ b/data/iscsi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="884" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_trunk_portal" sheetId="20" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="396">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
   </si>
   <si>
     <t>Gives summary information about iSCSI status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1830,10 +1826,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" t="s">
         <v>344</v>
-      </c>
-      <c r="B2" t="s">
-        <v>345</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1845,7 +1841,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -1854,18 +1850,18 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" t="s">
         <v>268</v>
-      </c>
-      <c r="J2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" t="s">
         <v>341</v>
-      </c>
-      <c r="B3" t="s">
-        <v>342</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1877,7 +1873,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1886,18 +1882,18 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1909,7 +1905,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1918,7 +1914,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1929,10 +1925,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -1944,7 +1940,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -1953,18 +1949,18 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1976,7 +1972,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -1985,18 +1981,18 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -2028,10 +2024,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -2072,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2105,10 +2101,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -2120,24 +2116,24 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
       </c>
       <c r="H2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" t="s">
         <v>268</v>
-      </c>
-      <c r="I2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2149,42 +2145,42 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" t="s">
         <v>362</v>
-      </c>
-      <c r="F4" t="s">
-        <v>363</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -2195,10 +2191,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -2207,10 +2203,10 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G5" t="s">
         <v>37</v>
@@ -2227,10 +2223,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2242,24 +2238,24 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" t="s">
         <v>348</v>
-      </c>
-      <c r="B7" t="s">
-        <v>349</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -2277,91 +2273,91 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" t="s">
         <v>270</v>
-      </c>
-      <c r="B8" t="s">
-        <v>271</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
       </c>
       <c r="H8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I8" t="s">
+        <v>376</v>
+      </c>
+      <c r="J8" t="s">
         <v>375</v>
-      </c>
-      <c r="I8" t="s">
-        <v>377</v>
-      </c>
-      <c r="J8" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9" t="s">
+        <v>374</v>
+      </c>
+      <c r="I9" t="s">
+        <v>376</v>
+      </c>
+      <c r="J9" t="s">
         <v>375</v>
-      </c>
-      <c r="I9" t="s">
-        <v>377</v>
-      </c>
-      <c r="J9" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2370,30 +2366,30 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" t="s">
         <v>272</v>
-      </c>
-      <c r="B11" t="s">
-        <v>273</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2402,30 +2398,30 @@
         <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" t="s">
         <v>274</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>275</v>
       </c>
-      <c r="C12" t="s">
-        <v>276</v>
-      </c>
       <c r="D12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -2434,30 +2430,30 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
+        <v>369</v>
+      </c>
+      <c r="I12" t="s">
+        <v>378</v>
+      </c>
+      <c r="J12" t="s">
         <v>370</v>
-      </c>
-      <c r="I12" t="s">
-        <v>379</v>
-      </c>
-      <c r="J12" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -2466,13 +2462,13 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
+        <v>371</v>
+      </c>
+      <c r="I13" t="s">
+        <v>377</v>
+      </c>
+      <c r="J13" t="s">
         <v>372</v>
-      </c>
-      <c r="I13" t="s">
-        <v>378</v>
-      </c>
-      <c r="J13" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2486,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2530,270 +2526,270 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>58</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>59</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>60</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>58</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>59</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>60</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>61</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>62</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>59</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>60</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>61</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>62</v>
-      </c>
-      <c r="K6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>261</v>
       </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>262</v>
-      </c>
       <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>59</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>60</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>61</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>62</v>
-      </c>
-      <c r="K7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>71</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>72</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>73</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>74</v>
       </c>
-      <c r="I9" t="s">
-        <v>75</v>
-      </c>
       <c r="J9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
         <v>70</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>73</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>74</v>
       </c>
-      <c r="I10" t="s">
-        <v>75</v>
-      </c>
       <c r="J10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
         <v>76</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>77</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2890,403 +2886,403 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>102</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>103</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>104</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>105</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>106</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>107</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>108</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>109</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>110</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>111</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>113</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>114</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>115</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>116</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>117</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>118</v>
-      </c>
-      <c r="W2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
         <v>99</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>100</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>101</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>102</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>103</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>104</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>105</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>106</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>107</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>108</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>109</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>110</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>111</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>112</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>113</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>114</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>115</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>116</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>117</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>118</v>
-      </c>
-      <c r="W3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>58</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>59</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>60</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>58</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>59</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>60</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>61</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>62</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>59</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>60</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>61</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>62</v>
-      </c>
-      <c r="K6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
         <v>120</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>121</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
         <v>122</v>
       </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>123</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>124</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>125</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>126</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>127</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>128</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>129</v>
       </c>
-      <c r="Q8" t="s">
-        <v>130</v>
-      </c>
       <c r="R8" t="s">
+        <v>278</v>
+      </c>
+      <c r="S8" t="s">
         <v>279</v>
-      </c>
-      <c r="S8" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
         <v>120</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>121</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s">
         <v>122</v>
       </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>117</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>123</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>124</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>125</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>126</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>127</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>128</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>129</v>
       </c>
-      <c r="Q9" t="s">
-        <v>130</v>
-      </c>
       <c r="R9" t="s">
+        <v>278</v>
+      </c>
+      <c r="S9" t="s">
         <v>279</v>
-      </c>
-      <c r="S9" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
         <v>76</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>77</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>78</v>
-      </c>
-      <c r="F11" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3332,213 +3328,213 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
         <v>143</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>144</v>
       </c>
-      <c r="F2" t="s">
-        <v>145</v>
-      </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
         <v>152</v>
       </c>
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
         <v>146</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>147</v>
       </c>
-      <c r="F3" t="s">
-        <v>148</v>
-      </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>132</v>
-      </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
       <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
         <v>131</v>
       </c>
-      <c r="D5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
         <v>136</v>
-      </c>
-      <c r="E6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" t="s">
         <v>353</v>
       </c>
-      <c r="B11" t="s">
-        <v>355</v>
-      </c>
-      <c r="C11" t="s">
-        <v>354</v>
-      </c>
       <c r="D11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" t="s">
         <v>164</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>165</v>
       </c>
-      <c r="F12" t="s">
-        <v>166</v>
-      </c>
       <c r="G12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3582,44 +3578,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3658,7 +3654,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -3669,51 +3665,51 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -3724,29 +3720,29 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -3757,227 +3753,227 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -3989,145 +3985,145 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" t="s">
         <v>208</v>
       </c>
-      <c r="B39" t="s">
-        <v>209</v>
-      </c>
       <c r="C39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -4138,24 +4134,24 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4192,7 +4188,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4203,7 +4199,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4214,7 +4210,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4225,7 +4221,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -4236,7 +4232,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -4247,7 +4243,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -4258,7 +4254,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -4269,7 +4265,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -4311,7 +4307,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4322,7 +4318,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -4333,7 +4329,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4344,7 +4340,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -4355,7 +4351,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -4366,7 +4362,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -4377,7 +4373,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -4388,7 +4384,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -4399,7 +4395,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -4410,7 +4406,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -4421,7 +4417,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -4432,7 +4428,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -4443,7 +4439,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -4454,7 +4450,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -4465,7 +4461,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -4476,7 +4472,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -4487,7 +4483,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -4498,7 +4494,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -4509,7 +4505,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>

--- a/data/iscsi.xlsx
+++ b/data/iscsi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="884" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_trunk_portal" sheetId="20" r:id="rId1"/>
@@ -81,24 +81,15 @@
     <t>TrunkId: 0</t>
   </si>
   <si>
-    <t>IpType: 4</t>
-  </si>
-  <si>
     <t>Dhcp: Enabled</t>
   </si>
   <si>
     <t>Dhcp: Disabled</t>
   </si>
   <si>
-    <t>PrimaryIpMask: 255.255.255.0</t>
-  </si>
-  <si>
     <t>Gateway: 10.84.2.1</t>
   </si>
   <si>
-    <t>IpType: 6</t>
-  </si>
-  <si>
     <t>TcpPort: 65534</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,26 +101,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PrimaryIp: 0:1:2:3:0:0:0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryIpMask: 4:5:6:0:0:0:0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gateway: 0:0:0:7:8:9:0:0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PrimaryIp: A:B:0:0:0:0:0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryIpMask: C:D:2:0:0:0:0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gateway: E:F:0:3:0:0:0:0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,9 +130,6 @@
     <t>InterfaceType: VLAN</t>
   </si>
   <si>
-    <t>PrimaryIp: 10.84.2.253</t>
-  </si>
-  <si>
     <t>iscsi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,12 +407,6 @@
     <t>IpType:</t>
   </si>
   <si>
-    <t>PrimaryIp:</t>
-  </si>
-  <si>
-    <t>PrimaryIpMask:</t>
-  </si>
-  <si>
     <t>Gateway:</t>
   </si>
   <si>
@@ -564,9 +530,6 @@
     <t>JumboFrame: Disabled</t>
   </si>
   <si>
-    <t>PrimaryIp: 10.84.2.240</t>
-  </si>
-  <si>
     <t>Gateway: 0.0.0.0</t>
   </si>
   <si>
@@ -578,10 +541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PrimaryIp: 10.84.2.250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi portal 1 should be deleted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1109,10 +1068,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PrimaryIp: 10.84.2.132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Operation failed as the portal id specified is invalid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1328,10 +1283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PrimaryIp: 10.84.2.241</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TcpPort: 65535</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1344,46 +1295,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IpType: 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryIp: 0:1:2:3:0:6:5:0</t>
-  </si>
-  <si>
-    <t>PrimaryIp: 0:1:2:3::</t>
-  </si>
-  <si>
     <t>Gateway: ::7:8:9:0:0</t>
   </si>
   <si>
-    <t>PrimaryIp: a:b:c:d::</t>
-  </si>
-  <si>
     <t>Gateway: e:f:0:3::</t>
   </si>
   <si>
-    <t>PrimaryIp: a:b::</t>
-  </si>
-  <si>
-    <t>PrimaryIp: ::</t>
-  </si>
-  <si>
     <t>Gateway: ::</t>
   </si>
   <si>
-    <t xml:space="preserve">PrimaryIpMask: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryIpMask: c:d:2::</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrimaryIpMask: 4:5:6::</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65535,porttype=io,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1440,7 +1360,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PrimaryIpMask: 4:5:6::</t>
+    <t>SubnetMask: 255.255.255.0</t>
+  </si>
+  <si>
+    <t>SubnetMask: 255.255.255.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPAddress: 10.84.2.132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPAddress: 0:1:2:3:0:0:0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPAddress: A:B:0:0:0:0:0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubnetMask: 255.255.255.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubnetMask: 4:5:6:0:0:0:0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubnetMask: C:D:2:0:0:0:0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SubnetMask: </t>
+  </si>
+  <si>
+    <t>SubnetMask: 4:5:6::</t>
+  </si>
+  <si>
+    <t>SubnetMask: c:d:2::</t>
+  </si>
+  <si>
+    <t>IPAddress: 10.84.2.241</t>
+  </si>
+  <si>
+    <t>IPAddress: 10.84.2.253</t>
+  </si>
+  <si>
+    <t>IPAddress: ::</t>
+  </si>
+  <si>
+    <t>IPAddress: 0:1:2:3:0:6:5:0</t>
+  </si>
+  <si>
+    <t>IPAddress: a:b::</t>
+  </si>
+  <si>
+    <t>IPAddress: 0:1:2:3::</t>
+  </si>
+  <si>
+    <t>IPAddress: a:b:c:d::</t>
+  </si>
+  <si>
+    <t>IPAddress:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubnetMask:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPAddress: 10.84.2.240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPAddress: 10.84.2.250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IpType: IPv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IpType: IPv6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1792,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1801,12 +1802,12 @@
     <col min="1" max="1" width="170.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="168.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1826,22 +1827,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -1850,30 +1851,30 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="J2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1882,30 +1883,30 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="J3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1914,33 +1915,33 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>395</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -1949,30 +1950,30 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>395</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -1981,30 +1982,30 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="J6" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>395</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -2013,33 +2014,33 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>375</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>378</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -2048,13 +2049,13 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>376</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>379</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2068,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2101,374 +2102,374 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="I2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="E4" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F4" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="E5" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>384</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>372</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="I6" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="I7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="I8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J8" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="I9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J9" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="B10" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="E10" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="I10" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J10" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="E11" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="I11" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J11" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D12" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="E12" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="I12" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J12" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C13" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D13" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="E13" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="I13" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J13" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2482,8 +2483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2520,276 +2521,276 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
-        <v>380</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>74</v>
-      </c>
       <c r="J9" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>380</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2803,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2886,403 +2887,403 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>99</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
         <v>100</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
         <v>101</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
         <v>102</v>
       </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
         <v>103</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Q2" t="s">
         <v>104</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>105</v>
       </c>
-      <c r="K2" t="s">
+      <c r="S2" t="s">
         <v>106</v>
       </c>
-      <c r="L2" t="s">
+      <c r="T2" t="s">
         <v>107</v>
       </c>
-      <c r="M2" t="s">
+      <c r="U2" t="s">
         <v>108</v>
       </c>
-      <c r="N2" t="s">
+      <c r="V2" t="s">
         <v>109</v>
       </c>
-      <c r="O2" t="s">
+      <c r="W2" t="s">
         <v>110</v>
-      </c>
-      <c r="P2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R2" t="s">
-        <v>113</v>
-      </c>
-      <c r="S2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T2" t="s">
-        <v>115</v>
-      </c>
-      <c r="U2" t="s">
-        <v>116</v>
-      </c>
-      <c r="V2" t="s">
-        <v>117</v>
-      </c>
-      <c r="W2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" t="s">
         <v>98</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>99</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" t="s">
         <v>100</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>101</v>
       </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
         <v>102</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>103</v>
       </c>
-      <c r="I3" t="s">
+      <c r="Q3" t="s">
         <v>104</v>
       </c>
-      <c r="J3" t="s">
+      <c r="R3" t="s">
         <v>105</v>
       </c>
-      <c r="K3" t="s">
+      <c r="S3" t="s">
         <v>106</v>
       </c>
-      <c r="L3" t="s">
+      <c r="T3" t="s">
         <v>107</v>
       </c>
-      <c r="M3" t="s">
+      <c r="U3" t="s">
         <v>108</v>
       </c>
-      <c r="N3" t="s">
+      <c r="V3" t="s">
         <v>109</v>
       </c>
-      <c r="O3" t="s">
+      <c r="W3" t="s">
         <v>110</v>
-      </c>
-      <c r="P3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R3" t="s">
-        <v>113</v>
-      </c>
-      <c r="S3" t="s">
-        <v>114</v>
-      </c>
-      <c r="T3" t="s">
-        <v>115</v>
-      </c>
-      <c r="U3" t="s">
-        <v>116</v>
-      </c>
-      <c r="V3" t="s">
-        <v>117</v>
-      </c>
-      <c r="W3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M8" t="s">
+        <v>391</v>
+      </c>
+      <c r="N8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" t="s">
         <v>119</v>
       </c>
-      <c r="E8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" t="s">
-        <v>122</v>
-      </c>
-      <c r="K8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L8" t="s">
-        <v>124</v>
-      </c>
-      <c r="M8" t="s">
-        <v>125</v>
-      </c>
-      <c r="N8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O8" t="s">
-        <v>127</v>
-      </c>
-      <c r="P8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>129</v>
-      </c>
       <c r="R8" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="S8" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>390</v>
+      </c>
+      <c r="M9" t="s">
+        <v>391</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" t="s">
         <v>119</v>
       </c>
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9" t="s">
-        <v>124</v>
-      </c>
-      <c r="M9" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" t="s">
-        <v>126</v>
-      </c>
-      <c r="O9" t="s">
-        <v>127</v>
-      </c>
-      <c r="P9" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>129</v>
-      </c>
       <c r="R9" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="S9" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
         <v>88</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
         <v>89</v>
       </c>
-      <c r="B11" t="s">
-        <v>97</v>
-      </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3296,8 +3297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3328,213 +3329,213 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>392</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>373</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C12" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>393</v>
       </c>
       <c r="G12" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3578,44 +3579,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3629,8 +3630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3654,7 +3655,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -3665,51 +3666,51 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -3720,29 +3721,29 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -3753,227 +3754,227 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C16" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="B23" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C23" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="B24" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C24" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C29" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -3985,145 +3986,145 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C34" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C35" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C36" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C42" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C43" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -4134,24 +4135,24 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C46" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4188,7 +4189,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4199,7 +4200,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4210,7 +4211,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4221,7 +4222,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -4232,7 +4233,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -4243,7 +4244,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -4254,7 +4255,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -4265,7 +4266,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -4307,7 +4308,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4318,7 +4319,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -4329,7 +4330,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4340,7 +4341,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -4351,7 +4352,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -4362,7 +4363,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -4373,7 +4374,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -4384,7 +4385,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -4395,7 +4396,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -4406,7 +4407,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -4417,7 +4418,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -4428,7 +4429,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -4439,7 +4440,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -4450,7 +4451,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -4461,7 +4462,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -4472,7 +4473,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -4483,7 +4484,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -4494,7 +4495,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -4505,7 +4506,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>

--- a/data/iscsi.xlsx
+++ b/data/iscsi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="884" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="add_trunk_portal" sheetId="20" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="397">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,15 +404,9 @@
     <t>InterfaceName:</t>
   </si>
   <si>
-    <t>IpType:</t>
-  </si>
-  <si>
     <t>Gateway:</t>
   </si>
   <si>
-    <t>AssnTargets:</t>
-  </si>
-  <si>
     <t>SecondRoute:</t>
   </si>
   <si>
@@ -1121,14 +1115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>portal of trunk type should be added by "iptype=6,dhcp=enable,trunkid=0,porttype=mgmt,attribute=advanced"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,trunkid=0,porttype=mgmt,attribute=advanced"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TcpPort: 1025</t>
   </si>
   <si>
@@ -1148,10 +1134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=4093,iptype=6,dhcp=enable,porttype=mgmt,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1220,10 +1202,6 @@
     <t>portal of physical type should be added by "iptype=4,dhcp=enable,tcpport=1025,porttype=io,attribute=io"</t>
   </si>
   <si>
-    <t>iscsi -a add -t portal -r 2 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vlan of physical type should be added by "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1304,10 +1282,6 @@
     <t>Gateway: ::</t>
   </si>
   <si>
-    <t>iscsi -a add -t portal -r 2 -p 1 -m vlan -s "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65535,porttype=io,attribute=io"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1371,14 +1345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IPAddress: 0:1:2:3:0:0:0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPAddress: A:B:0:0:0:0:0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SubnetMask: 255.255.255.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1400,48 +1366,94 @@
     <t>SubnetMask: c:d:2::</t>
   </si>
   <si>
-    <t>IPAddress: 10.84.2.241</t>
-  </si>
-  <si>
-    <t>IPAddress: 10.84.2.253</t>
-  </si>
-  <si>
-    <t>IPAddress: ::</t>
-  </si>
-  <si>
-    <t>IPAddress: 0:1:2:3:0:6:5:0</t>
-  </si>
-  <si>
-    <t>IPAddress: a:b::</t>
-  </si>
-  <si>
-    <t>IPAddress: 0:1:2:3::</t>
-  </si>
-  <si>
-    <t>IPAddress: a:b:c:d::</t>
-  </si>
-  <si>
-    <t>IPAddress:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SubnetMask:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IPAddress: 10.84.2.240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPAddress: 10.84.2.250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IpType: IPv4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IpType: IPv6</t>
+    <t>IPType: IPv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPType: IPv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPType:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPType:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: 0:1:2:3:0:0:0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: A:B:0:0:0:0:0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: ::</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: 0:1:2:3:0:6:5:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v: a:b::</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: 0:1:2:3::</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: a:b:c:d::</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: 10.84.2.240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: 10.84.2.250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: 10.84.2.241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP: 10.84.2.253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssnIscsiTargets:</t>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -m trunk -s "iptype=6,dhcp=enable,trunkid=0,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal of trunk type should be added by "iptype=6,dhcp=enable,trunkid=0,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 1 -p 1 -m vlan -s "vlantag=1,iptype=4,dhcp=disable,primaryip=10.84.2.253,primaryipmask=255.255.255.0,gateway=10.84.2.1,tcpport=65535,porttype=io,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 1 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,porttype=mgmt,attribute=io"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscsi -a add -t portal -r 1 -p 2 -m vlan -s "vlantag=2,iptype=4,dhcp=enable,tcpport=65535,porttype=mgmt,attribute=io"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1793,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1827,22 +1839,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -1851,30 +1863,30 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1883,30 +1895,30 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
         <v>303</v>
-      </c>
-      <c r="B4" t="s">
-        <v>305</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1915,10 +1927,10 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="J4" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -1926,22 +1938,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
         <v>304</v>
-      </c>
-      <c r="B5" t="s">
-        <v>306</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -1950,30 +1962,30 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J5" t="s">
         <v>254</v>
-      </c>
-      <c r="J5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>393</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -1982,24 +1994,24 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
+        <v>252</v>
+      </c>
+      <c r="J6" t="s">
         <v>254</v>
-      </c>
-      <c r="J6" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" t="s">
         <v>250</v>
-      </c>
-      <c r="B7" t="s">
-        <v>252</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -2014,10 +2026,10 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="J7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -2025,16 +2037,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" t="s">
         <v>251</v>
-      </c>
-      <c r="B8" t="s">
-        <v>253</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -2049,10 +2061,10 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J8" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="K8" t="s">
         <v>23</v>
@@ -2069,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2081,7 +2093,7 @@
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -2102,89 +2114,89 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" t="s">
         <v>313</v>
       </c>
-      <c r="B4" t="s">
-        <v>318</v>
-      </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -2192,31 +2204,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="I5" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -2224,45 +2236,45 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>334</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -2274,91 +2286,91 @@
         <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I8" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="J8" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I9" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="J9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -2367,30 +2379,30 @@
         <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I10" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="J10" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -2399,30 +2411,30 @@
         <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I11" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="J11" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" t="s">
         <v>261</v>
       </c>
-      <c r="B12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" t="s">
-        <v>263</v>
-      </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -2431,30 +2443,30 @@
         <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I12" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="J12" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D13" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E13" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -2463,13 +2475,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I13" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="J13" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2484,7 +2496,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2527,7 +2539,7 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -2544,7 +2556,7 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -2660,13 +2672,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
@@ -2709,7 +2721,7 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
@@ -2730,7 +2742,7 @@
         <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -2741,7 +2753,7 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
@@ -2762,7 +2774,7 @@
         <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -2805,7 +2817,7 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3099,7 +3111,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -3172,31 +3184,31 @@
         <v>114</v>
       </c>
       <c r="K8" t="s">
+        <v>377</v>
+      </c>
+      <c r="L8" t="s">
+        <v>386</v>
+      </c>
+      <c r="M8" t="s">
+        <v>374</v>
+      </c>
+      <c r="N8" t="s">
         <v>115</v>
       </c>
-      <c r="L8" t="s">
-        <v>390</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>391</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>116</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>117</v>
       </c>
-      <c r="P8" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>119</v>
-      </c>
       <c r="R8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
@@ -3231,31 +3243,31 @@
         <v>114</v>
       </c>
       <c r="K9" t="s">
+        <v>378</v>
+      </c>
+      <c r="L9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M9" t="s">
+        <v>374</v>
+      </c>
+      <c r="N9" t="s">
         <v>115</v>
       </c>
-      <c r="L9" t="s">
-        <v>390</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>391</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>116</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>117</v>
       </c>
-      <c r="P9" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>119</v>
-      </c>
       <c r="R9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
@@ -3298,7 +3310,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3307,7 +3319,7 @@
     <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.25" customWidth="1"/>
     <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
@@ -3329,213 +3341,213 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
         <v>143</v>
-      </c>
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" t="s">
         <v>142</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" t="s">
         <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" t="s">
-        <v>125</v>
-      </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C8" t="s">
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
         <v>147</v>
-      </c>
-      <c r="D9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s">
         <v>148</v>
-      </c>
-      <c r="D10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G11" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3579,10 +3591,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -3593,13 +3605,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -3607,13 +3619,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" t="s">
         <v>270</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>272</v>
-      </c>
-      <c r="C4" t="s">
-        <v>274</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>
@@ -3630,8 +3642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3655,7 +3667,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -3666,51 +3678,51 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -3721,29 +3733,29 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -3754,227 +3766,227 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B16" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C16" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" t="s">
         <v>276</v>
-      </c>
-      <c r="C23" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C24" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -3986,145 +3998,145 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B42" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" t="s">
         <v>276</v>
-      </c>
-      <c r="C42" t="s">
-        <v>278</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C43" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -4135,24 +4147,24 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C46" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4189,7 +4201,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -4200,7 +4212,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -4211,7 +4223,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -4222,7 +4234,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -4233,7 +4245,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -4244,7 +4256,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -4255,7 +4267,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -4266,7 +4278,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -4308,7 +4320,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4319,7 +4331,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -4330,7 +4342,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4341,7 +4353,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -4352,7 +4364,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -4363,7 +4375,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -4374,7 +4386,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -4385,7 +4397,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -4396,7 +4408,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -4407,7 +4419,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -4418,7 +4430,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -4429,7 +4441,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -4440,7 +4452,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -4451,7 +4463,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -4462,7 +4474,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -4473,7 +4485,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -4484,7 +4496,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -4495,7 +4507,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -4506,7 +4518,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
